--- a/Model/in progress/v02-10/Components/Objective/NBO_MicroscopyMetadataSpecifications_OBJECTIVE_v02-10.xlsx
+++ b/Model/in progress/v02-10/Components/Objective/NBO_MicroscopyMetadataSpecifications_OBJECTIVE_v02-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/NBOMicroscopyMetadataSpecs/Model/in progress/v02-10/Components/Objective/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAB9BF-2EF1-004E-AAA6-938D8CBAD8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A9D843-9539-4A40-AE53-B5770936CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="2720" windowWidth="24840" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="2720" windowWidth="24840" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NBO-CB_Hardware_Objective_v2.10" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,7 @@
   <authors>
     <author/>
     <author>Strambio, Caterina</author>
+    <author>tc={54BCC3A0-9AB4-764A-A955-D5C281CDAE60}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E386F28B-74AF-4144-BDAB-58FF3A2E5BA8}">
@@ -81,6 +82,16 @@
         </r>
       </text>
     </comment>
+    <comment ref="W1" authorId="2" shapeId="0" xr:uid="{54BCC3A0-9AB4-764A-A955-D5C281CDAE60}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use this column to provide feedback.
+Enter your name, lastname and email in the column header.
+Enter your comments/suggestions in the cell that corresponds to the row of the element/field you want to change.</t>
+      </text>
+    </comment>
   </commentList>
   <extLst>
     <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
@@ -95,6 +106,7 @@
   <authors>
     <author/>
     <author>Strambio, Caterina</author>
+    <author>tc={F821CFE4-1BC5-C946-A089-951891C866BA}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EE471918-69D1-6D4F-93BB-8E6E4715150E}">
@@ -134,6 +146,16 @@
         </r>
       </text>
     </comment>
+    <comment ref="W1" authorId="2" shapeId="0" xr:uid="{F821CFE4-1BC5-C946-A089-951891C866BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use this column to provide feedback.
+Enter your name, lastname and email in the column header.
+Enter your comments/suggestions in the cell that corresponds to the row of the element/field you want to change.</t>
+      </text>
+    </comment>
   </commentList>
   <extLst>
     <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
@@ -144,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="157">
   <si>
     <t>Element</t>
   </si>
@@ -613,6 +635,12 @@
   <si>
     <t>Settings-extensin base Sub-elements are listed in the main NBO_MicroscopyMetadataSpecifications_ALL_v02-10.xlsx document (https://github.com/WU-BIMAC/NBOMicroscopyMetadataSpecs/blob/master/Model/in%20progress/v02-10/NBO_MicroscopyMetadataSpecifications_ALL_v02-10.xlsx)</t>
   </si>
+  <si>
+    <t>Name, Lastname, email</t>
+  </si>
+  <si>
+    <t>Comment or Suggested Change about this Element or Field</t>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -802,6 +830,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1042,7 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1142,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1632,9 +1666,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,7 +1688,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1726,6 +1756,13 @@
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1787,6 +1824,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFD966"/>
       <color rgb="FFDBEDF7"/>
       <color rgb="FF595959"/>
       <color rgb="FF404040"/>
@@ -1796,7 +1834,6 @@
       <color rgb="FF87241C"/>
       <color rgb="FF55B54B"/>
       <color rgb="FF77BAE1"/>
-      <color rgb="FF680D04"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1823,7 +1860,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>2565942</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>194724</xdr:rowOff>
+      <xdr:rowOff>194725</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1909,7 +1946,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Strambio, Caterina" id="{F5588E4E-2383-374F-9153-426284221FE4}" userId="S::caterina.strambio@umassmed.edu::4576f7fc-814f-4bea-a03a-3cd37242cc62" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2108,6 +2147,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W1" dT="2021-10-06T22:44:42.32" personId="{F5588E4E-2383-374F-9153-426284221FE4}" id="{54BCC3A0-9AB4-764A-A955-D5C281CDAE60}">
+    <text>Use this column to provide feedback.
+Enter your name, lastname and email in the column header.
+Enter your comments/suggestions in the cell that corresponds to the row of the element/field you want to change.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W1" dT="2021-10-06T22:44:42.32" personId="{F5588E4E-2383-374F-9153-426284221FE4}" id="{F821CFE4-1BC5-C946-A089-951891C866BA}">
+    <text>Use this column to provide feedback.
+Enter your name, lastname and email in the column header.
+Enter your comments/suggestions in the cell that corresponds to the row of the element/field you want to change.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -2115,9 +2174,9 @@
   </sheetPr>
   <dimension ref="A1:AS519"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2196,7 @@
     <col min="18" max="20" width="12.33203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" style="113" customWidth="1"/>
     <col min="22" max="22" width="3.1640625" style="113" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" style="113" customWidth="1"/>
+    <col min="23" max="23" width="24.1640625" style="213" customWidth="1"/>
     <col min="24" max="30" width="10.83203125" style="113" customWidth="1"/>
     <col min="31" max="31" width="4" style="113" customWidth="1"/>
     <col min="32" max="34" width="10.83203125" style="113" customWidth="1"/>
@@ -2189,6 +2248,9 @@
       </c>
       <c r="T1" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="W1" s="212" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2254,7 +2316,7 @@
       </c>
       <c r="U3" s="113"/>
       <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
+      <c r="W3" s="213"/>
       <c r="X3" s="113"/>
       <c r="Y3" s="113"/>
       <c r="Z3" s="113"/>
@@ -2278,32 +2340,32 @@
       <c r="AR3" s="113"/>
       <c r="AS3" s="113"/>
     </row>
-    <row r="4" spans="1:45" s="187" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:45" s="186" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="179" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="180" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="185"/>
-      <c r="T4" s="185"/>
-      <c r="W4" s="188"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="W4" s="213"/>
     </row>
     <row r="5" spans="1:45" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="103">
@@ -2384,7 +2446,7 @@
       </c>
       <c r="U6" s="113"/>
       <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
+      <c r="W6" s="213"/>
       <c r="X6" s="113"/>
       <c r="Y6" s="113"/>
       <c r="Z6" s="113"/>
@@ -2445,7 +2507,7 @@
       </c>
       <c r="U7" s="113"/>
       <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
+      <c r="W7" s="213"/>
       <c r="X7" s="113"/>
       <c r="Y7" s="113"/>
       <c r="Z7" s="113"/>
@@ -2506,7 +2568,7 @@
       </c>
       <c r="U8" s="113"/>
       <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
+      <c r="W8" s="213"/>
       <c r="X8" s="113"/>
       <c r="Y8" s="113"/>
       <c r="Z8" s="113"/>
@@ -2563,7 +2625,7 @@
       </c>
       <c r="U9" s="113"/>
       <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
+      <c r="W9" s="213"/>
       <c r="X9" s="113"/>
       <c r="Y9" s="113"/>
       <c r="Z9" s="113"/>
@@ -2602,7 +2664,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="189" t="s">
+      <c r="K10" s="187" t="s">
         <v>152</v>
       </c>
       <c r="L10" s="24"/>
@@ -2616,7 +2678,7 @@
       <c r="T10" s="36"/>
       <c r="U10" s="113"/>
       <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
+      <c r="W10" s="213"/>
       <c r="X10" s="113"/>
       <c r="Y10" s="113"/>
       <c r="Z10" s="113"/>
@@ -2677,6 +2739,9 @@
       <c r="T11" s="80" t="s">
         <v>20</v>
       </c>
+      <c r="W11" s="213" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="103">
@@ -3436,28 +3501,28 @@
       <c r="S33" s="84"/>
       <c r="T33" s="83"/>
     </row>
-    <row r="34" spans="1:23" s="187" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="190"/>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="192"/>
-      <c r="P34" s="192"/>
-      <c r="Q34" s="193"/>
-      <c r="R34" s="192"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="192"/>
-      <c r="W34" s="188"/>
+    <row r="34" spans="1:23" s="186" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="188"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="190"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="190"/>
+      <c r="P34" s="190"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="190"/>
+      <c r="S34" s="190"/>
+      <c r="T34" s="190"/>
+      <c r="W34" s="213"/>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="107"/>
@@ -14146,9 +14211,9 @@
   </sheetPr>
   <dimension ref="A1:AT842"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A1:XFD3"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14166,7 +14231,9 @@
     <col min="16" max="16" width="12.33203125" style="151" customWidth="1"/>
     <col min="17" max="18" width="3.6640625" style="133" customWidth="1"/>
     <col min="19" max="21" width="12.33203125" style="133" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" style="133" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="133" customWidth="1"/>
+    <col min="23" max="23" width="24.1640625" style="213" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="133" customWidth="1"/>
     <col min="25" max="25" width="3.33203125" style="133" customWidth="1"/>
     <col min="26" max="28" width="10.83203125" style="133" customWidth="1"/>
     <col min="29" max="33" width="10.5" style="133" customWidth="1"/>
@@ -14174,7 +14241,7 @@
     <col min="47" max="16384" width="11.1640625" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="170" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="170" customFormat="1" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="162" t="s">
         <v>4</v>
       </c>
@@ -14216,10 +14283,13 @@
       <c r="U1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" s="196" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="194"/>
-      <c r="B2" s="195"/>
+      <c r="W1" s="212" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="194" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -14239,6 +14309,7 @@
       <c r="S2" s="125"/>
       <c r="T2" s="125"/>
       <c r="U2" s="125"/>
+      <c r="W2" s="213"/>
     </row>
     <row r="3" spans="1:46" s="123" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -14276,29 +14347,31 @@
       <c r="U3" s="80" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" s="187" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="213"/>
+    </row>
+    <row r="4" spans="1:46" s="186" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="130"/>
       <c r="B4" s="130"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="196"/>
       <c r="G4" s="137"/>
       <c r="H4" s="137"/>
       <c r="I4" s="137"/>
       <c r="J4" s="137"/>
       <c r="K4" s="137"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="202"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="200"/>
+      <c r="W4" s="213"/>
     </row>
     <row r="5" spans="1:46" s="118" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -14340,33 +14413,35 @@
         <v>39</v>
       </c>
       <c r="U5" s="80"/>
-    </row>
-    <row r="6" spans="1:46" s="187" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="204"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="210" t="s">
+      <c r="W5" s="213"/>
+    </row>
+    <row r="6" spans="1:46" s="186" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="208" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="189" t="s">
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="187" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="212"/>
-      <c r="N6" s="212"/>
-      <c r="O6" s="212"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="208"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="199"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="206"/>
+      <c r="W6" s="213"/>
     </row>
     <row r="7" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -14404,6 +14479,7 @@
       <c r="U7" s="80" t="s">
         <v>20</v>
       </c>
+      <c r="W7" s="213"/>
     </row>
     <row r="8" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="68">
@@ -14439,6 +14515,7 @@
       <c r="U8" s="80" t="s">
         <v>41</v>
       </c>
+      <c r="W8" s="213"/>
     </row>
     <row r="9" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="130"/>
@@ -14446,18 +14523,18 @@
       <c r="C9" s="95"/>
       <c r="D9" s="71"/>
       <c r="E9" s="136"/>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="211" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="179"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="56"/>
@@ -14466,6 +14543,7 @@
       </c>
       <c r="T9" s="35"/>
       <c r="U9" s="80"/>
+      <c r="W9" s="213"/>
     </row>
     <row r="10" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="130"/>
@@ -14473,16 +14551,16 @@
       <c r="C10" s="95"/>
       <c r="D10" s="71"/>
       <c r="E10" s="136"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="51"/>
       <c r="R10" s="56"/>
@@ -14491,6 +14569,7 @@
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="80"/>
+      <c r="W10" s="213"/>
     </row>
     <row r="11" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68">
@@ -14522,6 +14601,9 @@
       <c r="S11" s="83"/>
       <c r="T11" s="84"/>
       <c r="U11" s="83"/>
+      <c r="W11" s="213" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="68">
@@ -14553,6 +14635,7 @@
       <c r="S12" s="83"/>
       <c r="T12" s="84"/>
       <c r="U12" s="83"/>
+      <c r="W12" s="213"/>
     </row>
     <row r="13" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68">
@@ -14584,6 +14667,7 @@
       <c r="S13" s="83"/>
       <c r="T13" s="84"/>
       <c r="U13" s="83"/>
+      <c r="W13" s="213"/>
     </row>
     <row r="14" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="68">
@@ -14615,6 +14699,7 @@
       <c r="S14" s="83"/>
       <c r="T14" s="84"/>
       <c r="U14" s="83"/>
+      <c r="W14" s="213"/>
     </row>
     <row r="15" spans="1:46" s="118" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -14652,6 +14737,7 @@
       <c r="S15" s="83"/>
       <c r="T15" s="84"/>
       <c r="U15" s="83"/>
+      <c r="W15" s="213"/>
     </row>
     <row r="16" spans="1:46" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="103">
@@ -14690,7 +14776,7 @@
         <v>29</v>
       </c>
       <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
+      <c r="W16" s="213"/>
       <c r="X16" s="113"/>
       <c r="Y16" s="113"/>
       <c r="Z16" s="113"/>
@@ -14752,7 +14838,7 @@
         <v>29</v>
       </c>
       <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
+      <c r="W17" s="213"/>
       <c r="X17" s="113"/>
       <c r="Y17" s="113"/>
       <c r="Z17" s="113"/>
@@ -14814,7 +14900,7 @@
         <v>29</v>
       </c>
       <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
+      <c r="W18" s="213"/>
       <c r="X18" s="113"/>
       <c r="Y18" s="113"/>
       <c r="Z18" s="113"/>
@@ -14872,7 +14958,7 @@
         <v>29</v>
       </c>
       <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
+      <c r="W19" s="213"/>
       <c r="X19" s="113"/>
       <c r="Y19" s="113"/>
       <c r="Z19" s="113"/>
@@ -14926,7 +15012,7 @@
       <c r="T20" s="84"/>
       <c r="U20" s="83"/>
       <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
+      <c r="W20" s="213"/>
       <c r="X20" s="113"/>
       <c r="Y20" s="113"/>
       <c r="Z20" s="113"/>
@@ -14983,6 +15069,7 @@
       <c r="S21" s="83"/>
       <c r="T21" s="84"/>
       <c r="U21" s="83"/>
+      <c r="W21" s="213"/>
     </row>
     <row r="22" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -15026,6 +15113,7 @@
       <c r="U22" s="80" t="s">
         <v>40</v>
       </c>
+      <c r="W22" s="213"/>
     </row>
     <row r="23" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -15065,6 +15153,7 @@
       <c r="U23" s="80" t="s">
         <v>41</v>
       </c>
+      <c r="W23" s="213"/>
     </row>
     <row r="24" spans="1:46" s="118" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="68">
@@ -15096,6 +15185,7 @@
       <c r="S24" s="83"/>
       <c r="T24" s="84"/>
       <c r="U24" s="83"/>
+      <c r="W24" s="213"/>
     </row>
     <row r="25" spans="1:46" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="143"/>
